--- a/similarities/split_global/harmonic_similarity_timestamps_139.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_139.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D', 'G']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A', 'D']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:18.135000', '0:00:24.528000')]</t>
+          <t>('0:00:10.820000', '0:00:17.080000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:14.477567', '0:00:20.073576')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=18.135']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=14.477567']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:11.660000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:00.480000', '0:00:08.480000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:01:03.100000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+          <t>('0:01:12.820000', '0:01:24.380000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000')]</t>
+          <t>('0:00:43.340000', '0:00:59.340000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Db/2', 'Ab:maj', 'Ab:7']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F']]</t>
+          <t>['C', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:30.236000', '0:01:38.612000')]</t>
+          <t>('0:00:21.680000', '0:00:32.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:58.300000', '0:01:03.180000')]</t>
+          <t>('0:00:31.527551', '0:00:47.026870')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=90.236']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=58.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000'), ('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:01:58.400000', '0:02:01.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:14.080000', '0:00:20.540000'), ('0:00:23.980000', '0:00:29.420000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:9', 'C:maj/G', 'D:7']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:9', 'Eb', 'F:7']]</t>
+          <t>['G:7', 'C', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:55.300000', '0:01:00.900000')]</t>
+          <t>('0:00:05.500000', '0:00:10.400000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:15.510000', '0:00:17.340000')]</t>
+          <t>('0:01:00.006734', '0:01:08.830317')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=55.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=5.5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=15.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=60.006734</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C', 'G']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:53.320000', '0:01:03.460000')]</t>
+          <t>('0:00:14.628775', '0:00:26.430680')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:58.265237', '0:01:08.830317')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=53.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=58.265237']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>jaah_27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'A']]</t>
+          <t>['B:min7/4', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj']]</t>
+          <t>['E:min7', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:15.058526', '0:01:45.418616')]</t>
+          <t>('0:00:47.371000', '0:00:50.945000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.240000', '0:00:05.300000')]</t>
+          <t>('0:00:08.780000', '0:00:16.050000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=47.371</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=1.24']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=8.78</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_57</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj']]</t>
+          <t>['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C']]</t>
+          <t>['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:03.440000')]</t>
+          <t>('0:00:23.160000', '0:00:26.040000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:23.629455', '0:00:29.120975')]</t>
+          <t>('0:00:54.780000', '0:00:57.520000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=57.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-57#t=23.16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=23.629455']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=54.78</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:00:07.220000', '0:00:10.760000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:25.477221', '0:00:34.103434')]</t>
+          <t>('0:00:27.360000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=25.477221']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:7', 'G:min', 'C:min', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:24', '0:01:30.840000')]</t>
+          <t>('0:01:30.128000', '0:01:39.300000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:07.900000', '0:00:21.680000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=7.9</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:19.340000'), ('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:00:11.700000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:05.140000'), ('0:01:58.180000', '0:02:03.040000')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
+          <t>('0:00:11.820000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000')]</t>
+          <t>('0:00:10.820000', '0:00:17.080000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'G', 'D:7', 'G', 'C:7', 'G']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Eb', 'Bb:7', 'Eb', 'Ab:7', 'Eb']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.710000', '0:00:31.310000')]</t>
+          <t>('0:00:03', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:22.860000', '0:00:53.700000')]</t>
+          <t>('0:02:14.220000', '0:02:19.560000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=8.71']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=22.86']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['E', 'B:7', 'E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:05.140000'), ('0:01:58.180000', '0:02:03.040000')]</t>
+          <t>('0:00:08.700000', '0:00:26.220000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000'), ('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:01:01.683832', '0:01:11.056785')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
